--- a/Test_ Document.xlsx
+++ b/Test_ Document.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ST_18_March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B217DE-0B49-49AF-A68B-3E04E490BC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E12FC1-1701-41D7-86AD-4CA68DDDCF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="150" windowWidth="20430" windowHeight="10770" activeTab="1" xr2:uid="{525264C9-2F05-4820-AE37-BEC95970B938}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{525264C9-2F05-4820-AE37-BEC95970B938}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase-Morning" sheetId="3" r:id="rId2"/>
     <sheet name="TestCase" sheetId="2" r:id="rId3"/>
+    <sheet name="Test Sceanrio" sheetId="6" r:id="rId4"/>
+    <sheet name="Defect Report" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="154">
   <si>
     <t>Funtionality Id</t>
   </si>
@@ -492,12 +494,60 @@
   <si>
     <t>The All Items Page is not working properly as per the expectations</t>
   </si>
+  <si>
+    <t>Test Summary</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Reproduced Step</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Defect Types</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Functionality , usability</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Rakesh Kharva</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15Ff2FAdDoVbL0UVoDGuY5x24g23pvAmW/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yRFXwji3v-qwWHNmLQgIQtAqVn0Y0dYV/view?usp=share_link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +576,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -535,7 +593,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -558,11 +616,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -611,8 +696,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1335,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9893D6-28EE-4883-9C4F-4661322F92B7}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2308,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8A5004-19C2-4FA7-A717-11F1B14DFA49}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,4 +3198,1423 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2C7654-55BB-4F12-AF0D-A4CF55033117}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>9</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2304D5-71A6-4D6A-B700-65611729A660}">
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="8" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{C566E5A6-22D5-4ED9-9450-55448ED7EC40}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{815114B1-0644-4456-9959-ED97AA5EDF6F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>